--- a/natmiOut/OldD4/LR-pairs_lrc2p/F2-Thbd.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/F2-Thbd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Thbd</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.57991967623364</v>
+        <v>0.9442576666666667</v>
       </c>
       <c r="H2">
-        <v>0.57991967623364</v>
+        <v>2.832773</v>
       </c>
       <c r="I2">
-        <v>0.3552878116109889</v>
+        <v>0.4123198466914758</v>
       </c>
       <c r="J2">
-        <v>0.3552878116109889</v>
+        <v>0.4405367670065795</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>37.1269981675388</v>
+        <v>39.30519333333334</v>
       </c>
       <c r="N2">
-        <v>37.1269981675388</v>
+        <v>117.91558</v>
       </c>
       <c r="O2">
-        <v>0.5192519602226081</v>
+        <v>0.5006492135628842</v>
       </c>
       <c r="P2">
-        <v>0.5192519602226081</v>
+        <v>0.5206099073015165</v>
       </c>
       <c r="Q2">
-        <v>21.53067675684605</v>
+        <v>37.11423014481556</v>
       </c>
       <c r="R2">
-        <v>21.53067675684605</v>
+        <v>334.02807130334</v>
       </c>
       <c r="S2">
-        <v>0.1844838926222067</v>
+        <v>0.2064276069824563</v>
       </c>
       <c r="T2">
-        <v>0.1844838926222067</v>
+        <v>0.2293478054342051</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.57991967623364</v>
+        <v>0.9442576666666667</v>
       </c>
       <c r="H3">
-        <v>0.57991967623364</v>
+        <v>2.832773</v>
       </c>
       <c r="I3">
-        <v>0.3552878116109889</v>
+        <v>0.4123198466914758</v>
       </c>
       <c r="J3">
-        <v>0.3552878116109889</v>
+        <v>0.4405367670065795</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.95997435334606</v>
+        <v>9.067804333333333</v>
       </c>
       <c r="N3">
-        <v>7.95997435334606</v>
+        <v>27.203413</v>
       </c>
       <c r="O3">
-        <v>0.1113268642847197</v>
+        <v>0.1155009993138849</v>
       </c>
       <c r="P3">
-        <v>0.1113268642847197</v>
+        <v>0.1201059802293714</v>
       </c>
       <c r="Q3">
-        <v>4.616145749820525</v>
+        <v>8.562343761583222</v>
       </c>
       <c r="R3">
-        <v>4.616145749820525</v>
+        <v>77.06109385424901</v>
       </c>
       <c r="S3">
-        <v>0.03955307798523162</v>
+        <v>0.04762335432981327</v>
       </c>
       <c r="T3">
-        <v>0.03955307798523162</v>
+        <v>0.05291110022840345</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.57991967623364</v>
+        <v>0.9442576666666667</v>
       </c>
       <c r="H4">
-        <v>0.57991967623364</v>
+        <v>2.832773</v>
       </c>
       <c r="I4">
-        <v>0.3552878116109889</v>
+        <v>0.4123198466914758</v>
       </c>
       <c r="J4">
-        <v>0.3552878116109889</v>
+        <v>0.4405367670065795</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.02165489060689</v>
+        <v>6.207392666666667</v>
       </c>
       <c r="N4">
-        <v>6.02165489060689</v>
+        <v>18.622178</v>
       </c>
       <c r="O4">
-        <v>0.08421785385454338</v>
+        <v>0.0790665556708286</v>
       </c>
       <c r="P4">
-        <v>0.08421785385454338</v>
+        <v>0.08221890917495668</v>
       </c>
       <c r="Q4">
-        <v>3.492076154551463</v>
+        <v>5.861378115510445</v>
       </c>
       <c r="R4">
-        <v>3.492076154551463</v>
+        <v>52.75240303959401</v>
       </c>
       <c r="S4">
-        <v>0.0299215769945548</v>
+        <v>0.03260071011261909</v>
       </c>
       <c r="T4">
-        <v>0.0299215769945548</v>
+        <v>0.03622045243474301</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.57991967623364</v>
+        <v>0.9442576666666667</v>
       </c>
       <c r="H5">
-        <v>0.57991967623364</v>
+        <v>2.832773</v>
       </c>
       <c r="I5">
-        <v>0.3552878116109889</v>
+        <v>0.4123198466914758</v>
       </c>
       <c r="J5">
-        <v>0.3552878116109889</v>
+        <v>0.4405367670065795</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.4829170516046</v>
+        <v>14.89778633333333</v>
       </c>
       <c r="N5">
-        <v>11.4829170516046</v>
+        <v>44.693359</v>
       </c>
       <c r="O5">
-        <v>0.1605981491208333</v>
+        <v>0.1897602932100546</v>
       </c>
       <c r="P5">
-        <v>0.1605981491208333</v>
+        <v>0.1973259639310038</v>
       </c>
       <c r="Q5">
-        <v>6.659169538784284</v>
+        <v>14.06734896161189</v>
       </c>
       <c r="R5">
-        <v>6.659169538784284</v>
+        <v>126.606140654507</v>
       </c>
       <c r="S5">
-        <v>0.05705856494991612</v>
+        <v>0.07824193500449922</v>
       </c>
       <c r="T5">
-        <v>0.05705856494991612</v>
+        <v>0.08692934219662134</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.57991967623364</v>
+        <v>0.9442576666666667</v>
       </c>
       <c r="H6">
-        <v>0.57991967623364</v>
+        <v>2.832773</v>
       </c>
       <c r="I6">
-        <v>0.3552878116109889</v>
+        <v>0.4123198466914758</v>
       </c>
       <c r="J6">
-        <v>0.3552878116109889</v>
+        <v>0.4405367670065795</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.909385743545741</v>
+        <v>9.030272500000001</v>
       </c>
       <c r="N6">
-        <v>8.909385743545741</v>
+        <v>18.060545</v>
       </c>
       <c r="O6">
-        <v>0.1246051725172955</v>
+        <v>0.1150229382423478</v>
       </c>
       <c r="P6">
-        <v>0.1246051725172955</v>
+        <v>0.07973923936315172</v>
       </c>
       <c r="Q6">
-        <v>5.166728095837654</v>
+        <v>8.526904040214168</v>
       </c>
       <c r="R6">
-        <v>5.166728095837654</v>
+        <v>51.161424241285</v>
       </c>
       <c r="S6">
-        <v>0.04427069905907965</v>
+        <v>0.04742624026208793</v>
       </c>
       <c r="T6">
-        <v>0.04427069905907965</v>
+        <v>0.03512806671260664</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.660669065824854</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H7">
-        <v>0.660669065824854</v>
+        <v>2.048396</v>
       </c>
       <c r="I7">
-        <v>0.4047589282027066</v>
+        <v>0.2981510783544719</v>
       </c>
       <c r="J7">
-        <v>0.4047589282027066</v>
+        <v>0.3185549111733306</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>37.1269981675388</v>
+        <v>39.30519333333334</v>
       </c>
       <c r="N7">
-        <v>37.1269981675388</v>
+        <v>117.91558</v>
       </c>
       <c r="O7">
-        <v>0.5192519602226081</v>
+        <v>0.5006492135628842</v>
       </c>
       <c r="P7">
-        <v>0.5192519602226081</v>
+        <v>0.5206099073015165</v>
       </c>
       <c r="Q7">
-        <v>24.52865919622893</v>
+        <v>26.83753360107556</v>
       </c>
       <c r="R7">
-        <v>24.52865919622893</v>
+        <v>241.53780240968</v>
       </c>
       <c r="S7">
-        <v>0.2101718668868573</v>
+        <v>0.1492691029010922</v>
       </c>
       <c r="T7">
-        <v>0.2101718668868573</v>
+        <v>0.1658428427763905</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.660669065824854</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H8">
-        <v>0.660669065824854</v>
+        <v>2.048396</v>
       </c>
       <c r="I8">
-        <v>0.4047589282027066</v>
+        <v>0.2981510783544719</v>
       </c>
       <c r="J8">
-        <v>0.4047589282027066</v>
+        <v>0.3185549111733306</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.95997435334606</v>
+        <v>9.067804333333333</v>
       </c>
       <c r="N8">
-        <v>7.95997435334606</v>
+        <v>27.203413</v>
       </c>
       <c r="O8">
-        <v>0.1113268642847197</v>
+        <v>0.1155009993138849</v>
       </c>
       <c r="P8">
-        <v>0.1113268642847197</v>
+        <v>0.1201059802293714</v>
       </c>
       <c r="Q8">
-        <v>5.258908820014938</v>
+        <v>6.191484708394222</v>
       </c>
       <c r="R8">
-        <v>5.258908820014938</v>
+        <v>55.723362375548</v>
       </c>
       <c r="S8">
-        <v>0.04506054226805133</v>
+        <v>0.03443674749645389</v>
       </c>
       <c r="T8">
-        <v>0.04506054226805133</v>
+        <v>0.03826034986335322</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.660669065824854</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H9">
-        <v>0.660669065824854</v>
+        <v>2.048396</v>
       </c>
       <c r="I9">
-        <v>0.4047589282027066</v>
+        <v>0.2981510783544719</v>
       </c>
       <c r="J9">
-        <v>0.4047589282027066</v>
+        <v>0.3185549111733306</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.02165489060689</v>
+        <v>6.207392666666667</v>
       </c>
       <c r="N9">
-        <v>6.02165489060689</v>
+        <v>18.622178</v>
       </c>
       <c r="O9">
-        <v>0.08421785385454338</v>
+        <v>0.0790665556708286</v>
       </c>
       <c r="P9">
-        <v>0.08421785385454338</v>
+        <v>0.08221890917495668</v>
       </c>
       <c r="Q9">
-        <v>3.978321111296917</v>
+        <v>4.238399436276445</v>
       </c>
       <c r="R9">
-        <v>3.978321111296917</v>
+        <v>38.145594926488</v>
       </c>
       <c r="S9">
-        <v>0.03408792826169716</v>
+        <v>0.02357377883503143</v>
       </c>
       <c r="T9">
-        <v>0.03408792826169716</v>
+        <v>0.02619123730899646</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.660669065824854</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H10">
-        <v>0.660669065824854</v>
+        <v>2.048396</v>
       </c>
       <c r="I10">
-        <v>0.4047589282027066</v>
+        <v>0.2981510783544719</v>
       </c>
       <c r="J10">
-        <v>0.4047589282027066</v>
+        <v>0.3185549111733306</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.4829170516046</v>
+        <v>14.89778633333333</v>
       </c>
       <c r="N10">
-        <v>11.4829170516046</v>
+        <v>44.693359</v>
       </c>
       <c r="O10">
-        <v>0.1605981491208333</v>
+        <v>0.1897602932100546</v>
       </c>
       <c r="P10">
-        <v>0.1605981491208333</v>
+        <v>0.1973259639310038</v>
       </c>
       <c r="Q10">
-        <v>7.586408081427898</v>
+        <v>10.17218864468489</v>
       </c>
       <c r="R10">
-        <v>7.586408081427898</v>
+        <v>91.54969780216399</v>
       </c>
       <c r="S10">
-        <v>0.06500353470948693</v>
+        <v>0.05657723604943855</v>
       </c>
       <c r="T10">
-        <v>0.06500353470948693</v>
+        <v>0.06285915491223276</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.660669065824854</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H11">
-        <v>0.660669065824854</v>
+        <v>2.048396</v>
       </c>
       <c r="I11">
-        <v>0.4047589282027066</v>
+        <v>0.2981510783544719</v>
       </c>
       <c r="J11">
-        <v>0.4047589282027066</v>
+        <v>0.3185549111733306</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.909385743545741</v>
+        <v>9.030272500000001</v>
       </c>
       <c r="N11">
-        <v>8.909385743545741</v>
+        <v>18.060545</v>
       </c>
       <c r="O11">
-        <v>0.1246051725172955</v>
+        <v>0.1150229382423478</v>
       </c>
       <c r="P11">
-        <v>0.1246051725172955</v>
+        <v>0.07973923936315172</v>
       </c>
       <c r="Q11">
-        <v>5.886155556261636</v>
+        <v>6.165858022636667</v>
       </c>
       <c r="R11">
-        <v>5.886155556261636</v>
+        <v>36.99514813582</v>
       </c>
       <c r="S11">
-        <v>0.05043505607661387</v>
+        <v>0.03429421307245581</v>
       </c>
       <c r="T11">
-        <v>0.05043505607661387</v>
+        <v>0.02540132631235775</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.39166448274001</v>
+        <v>0.073199</v>
       </c>
       <c r="H12">
-        <v>0.39166448274001</v>
+        <v>0.219597</v>
       </c>
       <c r="I12">
-        <v>0.2399532601863045</v>
+        <v>0.03196309812819736</v>
       </c>
       <c r="J12">
-        <v>0.2399532601863045</v>
+        <v>0.03415047814432848</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>37.1269981675388</v>
+        <v>39.30519333333334</v>
       </c>
       <c r="N12">
-        <v>37.1269981675388</v>
+        <v>117.91558</v>
       </c>
       <c r="O12">
-        <v>0.5192519602226081</v>
+        <v>0.5006492135628842</v>
       </c>
       <c r="P12">
-        <v>0.5192519602226081</v>
+        <v>0.5206099073015165</v>
       </c>
       <c r="Q12">
-        <v>14.54132653297838</v>
+        <v>2.877100846806667</v>
       </c>
       <c r="R12">
-        <v>14.54132653297838</v>
+        <v>25.89390762126</v>
       </c>
       <c r="S12">
-        <v>0.1245962007135441</v>
+        <v>0.0160022999409153</v>
       </c>
       <c r="T12">
-        <v>0.1245962007135441</v>
+        <v>0.01777907726102132</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.39166448274001</v>
+        <v>0.073199</v>
       </c>
       <c r="H13">
-        <v>0.39166448274001</v>
+        <v>0.219597</v>
       </c>
       <c r="I13">
-        <v>0.2399532601863045</v>
+        <v>0.03196309812819736</v>
       </c>
       <c r="J13">
-        <v>0.2399532601863045</v>
+        <v>0.03415047814432848</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.95997435334606</v>
+        <v>9.067804333333333</v>
       </c>
       <c r="N13">
-        <v>7.95997435334606</v>
+        <v>27.203413</v>
       </c>
       <c r="O13">
-        <v>0.1113268642847197</v>
+        <v>0.1155009993138849</v>
       </c>
       <c r="P13">
-        <v>0.1113268642847197</v>
+        <v>0.1201059802293714</v>
       </c>
       <c r="Q13">
-        <v>3.11763923772703</v>
+        <v>0.6637542093956667</v>
       </c>
       <c r="R13">
-        <v>3.11763923772703</v>
+        <v>5.973787884561</v>
       </c>
       <c r="S13">
-        <v>0.02671324403143676</v>
+        <v>0.003691769774974558</v>
       </c>
       <c r="T13">
-        <v>0.02671324403143676</v>
+        <v>0.004101676652826299</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.39166448274001</v>
+        <v>0.073199</v>
       </c>
       <c r="H14">
-        <v>0.39166448274001</v>
+        <v>0.219597</v>
       </c>
       <c r="I14">
-        <v>0.2399532601863045</v>
+        <v>0.03196309812819736</v>
       </c>
       <c r="J14">
-        <v>0.2399532601863045</v>
+        <v>0.03415047814432848</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.02165489060689</v>
+        <v>6.207392666666667</v>
       </c>
       <c r="N14">
-        <v>6.02165489060689</v>
+        <v>18.622178</v>
       </c>
       <c r="O14">
-        <v>0.08421785385454338</v>
+        <v>0.0790665556708286</v>
       </c>
       <c r="P14">
-        <v>0.08421785385454338</v>
+        <v>0.08221890917495668</v>
       </c>
       <c r="Q14">
-        <v>2.358468347968399</v>
+        <v>0.4543749358073334</v>
       </c>
       <c r="R14">
-        <v>2.358468347968399</v>
+        <v>4.089374422266</v>
       </c>
       <c r="S14">
-        <v>0.02020834859829141</v>
+        <v>0.002527212077565274</v>
       </c>
       <c r="T14">
-        <v>0.02020834859829141</v>
+        <v>0.002807815060829887</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.39166448274001</v>
+        <v>0.073199</v>
       </c>
       <c r="H15">
-        <v>0.39166448274001</v>
+        <v>0.219597</v>
       </c>
       <c r="I15">
-        <v>0.2399532601863045</v>
+        <v>0.03196309812819736</v>
       </c>
       <c r="J15">
-        <v>0.2399532601863045</v>
+        <v>0.03415047814432848</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.4829170516046</v>
+        <v>14.89778633333333</v>
       </c>
       <c r="N15">
-        <v>11.4829170516046</v>
+        <v>44.693359</v>
       </c>
       <c r="O15">
-        <v>0.1605981491208333</v>
+        <v>0.1897602932100546</v>
       </c>
       <c r="P15">
-        <v>0.1605981491208333</v>
+        <v>0.1973259639310038</v>
       </c>
       <c r="Q15">
-        <v>4.497450767363156</v>
+        <v>1.090503061813667</v>
       </c>
       <c r="R15">
-        <v>4.497450767363156</v>
+        <v>9.814527556323</v>
       </c>
       <c r="S15">
-        <v>0.03853604946143024</v>
+        <v>0.006065326872708479</v>
       </c>
       <c r="T15">
-        <v>0.03853604946143024</v>
+        <v>0.006738776018534297</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.073199</v>
+      </c>
+      <c r="H16">
+        <v>0.219597</v>
+      </c>
+      <c r="I16">
+        <v>0.03196309812819736</v>
+      </c>
+      <c r="J16">
+        <v>0.03415047814432848</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>9.030272500000001</v>
+      </c>
+      <c r="N16">
+        <v>18.060545</v>
+      </c>
+      <c r="O16">
+        <v>0.1150229382423478</v>
+      </c>
+      <c r="P16">
+        <v>0.07973923936315172</v>
+      </c>
+      <c r="Q16">
+        <v>0.6610069167275</v>
+      </c>
+      <c r="R16">
+        <v>3.966041500365</v>
+      </c>
+      <c r="S16">
+        <v>0.003676489462033747</v>
+      </c>
+      <c r="T16">
+        <v>0.00272313315111669</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1498013333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.449404</v>
+      </c>
+      <c r="I17">
+        <v>0.06541229684924842</v>
+      </c>
+      <c r="J17">
+        <v>0.0698887574965678</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>39.30519333333334</v>
+      </c>
+      <c r="N17">
+        <v>117.91558</v>
+      </c>
+      <c r="O17">
+        <v>0.5006492135628842</v>
+      </c>
+      <c r="P17">
+        <v>0.5206099073015165</v>
+      </c>
+      <c r="Q17">
+        <v>5.887970368257778</v>
+      </c>
+      <c r="R17">
+        <v>52.99173331432001</v>
+      </c>
+      <c r="S17">
+        <v>0.03274861497491815</v>
+      </c>
+      <c r="T17">
+        <v>0.03638477956170633</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1498013333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.449404</v>
+      </c>
+      <c r="I18">
+        <v>0.06541229684924842</v>
+      </c>
+      <c r="J18">
+        <v>0.0698887574965678</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>9.067804333333333</v>
+      </c>
+      <c r="N18">
+        <v>27.203413</v>
+      </c>
+      <c r="O18">
+        <v>0.1155009993138849</v>
+      </c>
+      <c r="P18">
+        <v>0.1201059802293714</v>
+      </c>
+      <c r="Q18">
+        <v>1.358369179539111</v>
+      </c>
+      <c r="R18">
+        <v>12.225322615852</v>
+      </c>
+      <c r="S18">
+        <v>0.007555185653504676</v>
+      </c>
+      <c r="T18">
+        <v>0.008394057726138106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1498013333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.449404</v>
+      </c>
+      <c r="I19">
+        <v>0.06541229684924842</v>
+      </c>
+      <c r="J19">
+        <v>0.0698887574965678</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>6.207392666666667</v>
+      </c>
+      <c r="N19">
+        <v>18.622178</v>
+      </c>
+      <c r="O19">
+        <v>0.0790665556708286</v>
+      </c>
+      <c r="P19">
+        <v>0.08221890917495668</v>
+      </c>
+      <c r="Q19">
+        <v>0.9298756979902224</v>
+      </c>
+      <c r="R19">
+        <v>8.368881281912001</v>
+      </c>
+      <c r="S19">
+        <v>0.005171925010387866</v>
+      </c>
+      <c r="T19">
+        <v>0.005746177404960881</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1498013333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.449404</v>
+      </c>
+      <c r="I20">
+        <v>0.06541229684924842</v>
+      </c>
+      <c r="J20">
+        <v>0.0698887574965678</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>14.89778633333333</v>
+      </c>
+      <c r="N20">
+        <v>44.693359</v>
+      </c>
+      <c r="O20">
+        <v>0.1897602932100546</v>
+      </c>
+      <c r="P20">
+        <v>0.1973259639310038</v>
+      </c>
+      <c r="Q20">
+        <v>2.231708256448445</v>
+      </c>
+      <c r="R20">
+        <v>20.085374308036</v>
+      </c>
+      <c r="S20">
+        <v>0.01241265662965651</v>
+      </c>
+      <c r="T20">
+        <v>0.01379086644095041</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1498013333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.449404</v>
+      </c>
+      <c r="I21">
+        <v>0.06541229684924842</v>
+      </c>
+      <c r="J21">
+        <v>0.0698887574965678</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>9.030272500000001</v>
+      </c>
+      <c r="N21">
+        <v>18.060545</v>
+      </c>
+      <c r="O21">
+        <v>0.1150229382423478</v>
+      </c>
+      <c r="P21">
+        <v>0.07973923936315172</v>
+      </c>
+      <c r="Q21">
+        <v>1.352746860863334</v>
+      </c>
+      <c r="R21">
+        <v>8.116481165180002</v>
+      </c>
+      <c r="S21">
+        <v>0.007523914580781221</v>
+      </c>
+      <c r="T21">
+        <v>0.005572876362812083</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.440053</v>
+      </c>
+      <c r="H22">
+        <v>0.8801059999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.1921536799766067</v>
+      </c>
+      <c r="J22">
+        <v>0.1368690861791935</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>39.30519333333334</v>
+      </c>
+      <c r="N22">
+        <v>117.91558</v>
+      </c>
+      <c r="O22">
+        <v>0.5006492135628842</v>
+      </c>
+      <c r="P22">
+        <v>0.5206099073015165</v>
+      </c>
+      <c r="Q22">
+        <v>17.29636824191333</v>
+      </c>
+      <c r="R22">
+        <v>103.77820945148</v>
+      </c>
+      <c r="S22">
+        <v>0.09620158876350224</v>
+      </c>
+      <c r="T22">
+        <v>0.07125540226819323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.440053</v>
+      </c>
+      <c r="H23">
+        <v>0.8801059999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.1921536799766067</v>
+      </c>
+      <c r="J23">
+        <v>0.1368690861791935</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>9.067804333333333</v>
+      </c>
+      <c r="N23">
+        <v>27.203413</v>
+      </c>
+      <c r="O23">
+        <v>0.1155009993138849</v>
+      </c>
+      <c r="P23">
+        <v>0.1201059802293714</v>
+      </c>
+      <c r="Q23">
+        <v>3.990314500296333</v>
+      </c>
+      <c r="R23">
+        <v>23.941887001778</v>
+      </c>
+      <c r="S23">
+        <v>0.0221939420591385</v>
+      </c>
+      <c r="T23">
+        <v>0.01643879575865036</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.39166448274001</v>
-      </c>
-      <c r="H16">
-        <v>0.39166448274001</v>
-      </c>
-      <c r="I16">
-        <v>0.2399532601863045</v>
-      </c>
-      <c r="J16">
-        <v>0.2399532601863045</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>8.909385743545741</v>
-      </c>
-      <c r="N16">
-        <v>8.909385743545741</v>
-      </c>
-      <c r="O16">
-        <v>0.1246051725172955</v>
-      </c>
-      <c r="P16">
-        <v>0.1246051725172955</v>
-      </c>
-      <c r="Q16">
-        <v>3.489489958777062</v>
-      </c>
-      <c r="R16">
-        <v>3.489489958777062</v>
-      </c>
-      <c r="S16">
-        <v>0.02989941738160196</v>
-      </c>
-      <c r="T16">
-        <v>0.02989941738160196</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.440053</v>
+      </c>
+      <c r="H24">
+        <v>0.8801059999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.1921536799766067</v>
+      </c>
+      <c r="J24">
+        <v>0.1368690861791935</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>6.207392666666667</v>
+      </c>
+      <c r="N24">
+        <v>18.622178</v>
+      </c>
+      <c r="O24">
+        <v>0.0790665556708286</v>
+      </c>
+      <c r="P24">
+        <v>0.08221890917495668</v>
+      </c>
+      <c r="Q24">
+        <v>2.731581765144667</v>
+      </c>
+      <c r="R24">
+        <v>16.389490590868</v>
+      </c>
+      <c r="S24">
+        <v>0.01519292963522495</v>
+      </c>
+      <c r="T24">
+        <v>0.01125322696542643</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.440053</v>
+      </c>
+      <c r="H25">
+        <v>0.8801059999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.1921536799766067</v>
+      </c>
+      <c r="J25">
+        <v>0.1368690861791935</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>14.89778633333333</v>
+      </c>
+      <c r="N25">
+        <v>44.693359</v>
+      </c>
+      <c r="O25">
+        <v>0.1897602932100546</v>
+      </c>
+      <c r="P25">
+        <v>0.1973259639310038</v>
+      </c>
+      <c r="Q25">
+        <v>6.555815569342333</v>
+      </c>
+      <c r="R25">
+        <v>39.334893416054</v>
+      </c>
+      <c r="S25">
+        <v>0.03646313865375188</v>
+      </c>
+      <c r="T25">
+        <v>0.027007824362665</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.440053</v>
+      </c>
+      <c r="H26">
+        <v>0.8801059999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.1921536799766067</v>
+      </c>
+      <c r="J26">
+        <v>0.1368690861791935</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>9.030272500000001</v>
+      </c>
+      <c r="N26">
+        <v>18.060545</v>
+      </c>
+      <c r="O26">
+        <v>0.1150229382423478</v>
+      </c>
+      <c r="P26">
+        <v>0.07973923936315172</v>
+      </c>
+      <c r="Q26">
+        <v>3.9737985044425</v>
+      </c>
+      <c r="R26">
+        <v>15.89519401777</v>
+      </c>
+      <c r="S26">
+        <v>0.02210208086498909</v>
+      </c>
+      <c r="T26">
+        <v>0.01091383682425856</v>
       </c>
     </row>
   </sheetData>
